--- a/outputs/BAGHA1.xlsx
+++ b/outputs/BAGHA1.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Understanding what the conference is about is a crucial step for Abi to determine if her paper aligns with the conference's themes and objectives. Given Abi's motivation to accomplish tasks efficiently, gathering comprehensive information about the conference would be a logical step. This aligns with her comprehensive information processing style, where she would want to form a complete understanding before proceeding with her submission.</t>
+Facets: Motivations, Information Processing Style
+Why: Abi is motivated to submit a paper to ASE 2019, and understanding what the conference is about is a crucial step in ensuring that her paper aligns with the conference's themes and objectives. Additionally, Abi's comprehensive information processing style means she would want to gather all relevant information about the conference before proceeding with the submission.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 4. Computer Self-Efficacy
-Why: The cookie consent banner is clearly visible at the bottom of the screen, with a straightforward "Accept &amp; Close" button. The action of accepting cookies is common and familiar to most users, including Abi, who has a general comfort level with familiar technologies. Additionally, the button is labeled in a way that clearly indicates its purpose, reducing any uncertainty or confusion. This action is simple and does not require a high level of computer self-efficacy.</t>
+Facets: None of the Above
+Why: The "Accept &amp; Close" button for cookies is a common and straightforward action on many websites. It is clearly labeled and located at the bottom of the screen, making it easy for Abi to understand and perform this action without any confusion. This action does not require any specific technical knowledge or confidence in computing tasks.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After accepting the cookie, Abi would be able to view the full content of the page without any obstructions. The page provides comprehensive information about the ASE 2019 conference, including an introduction, keynotes, distinguished papers, and other details. This aligns with Abi's motivations to accomplish her task of finding out what the conference is about and her comprehensive information processing style. The information on the page is detailed and relevant, helping Abi feel confident that she is making progress toward her goal.</t>
+Facets: None of the Above
+Why: After accepting the cookies, Abi will remain on the same page, which contains comprehensive information about the ASE 2019 conference. The page includes details about the conference, keynotes, distinguished papers, and other relevant information. Abi will know she did the right thing because the cookie acceptance banner will disappear, allowing her to focus on the content of the page and gather the necessary information about the conference.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page contains a lot of information structured in a way that suggests there is more content below the fold, such as the introduction to keynotes and distinguished papers. Abi, motivated to gather comprehensive information about the conference, would logically think to scroll down to see additional details. This aligns with her comprehensive information processing style, where she prefers to gather all necessary information before proceeding. The layout and design of the page make it clear that more information is available if she scrolls down.</t>
+Facets: Information Processing Style
+Why: Scrolling down to see more information aligns with Abi's comprehensive information processing style. The page is designed to provide more details as the user scrolls, and it is a common action that Abi would likely understand and perform to gather all the necessary information about the conference.</t>
         </is>
       </c>
     </row>
@@ -461,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling down, Abi will uncover detailed information about the conference, such as keynotes, distinguished papers, and other relevant details. This aligns with her motivation to understand what the conference is about and her comprehensive information processing style. The content presented as she scrolls down provides a thorough overview of the conference, helping Abi feel assured that she is making progress toward her goal and obtaining the necessary information.</t>
+Facets: Information Processing Style
+Why: After scrolling down, Abi will find detailed information about the ASE 2019 conference, including keynotes, distinguished papers, and other relevant details. This comprehensive information will help Abi understand what the conference is about, confirming that she is making progress toward her goal of submitting a paper. The page is well-structured and provides the necessary information, aligning with Abi's need for a thorough understanding.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
-Why: The "Research Papers" link in the ASE 2019 Tracks box is clearly labeled and appears relevant to Abi's goal of finding out what the conference is about. Given her motivation to gather comprehensive information and her preference for process-oriented learning, Abi is likely to recognize that clicking on this link will lead to more detailed information about one of the key aspects of the conference. The page layout and the clear labeling make it intuitive for Abi to know that this action will help her progress toward her goal.</t>
+          <t>Answer: NO
+Facets: Computer Self-Efficacy, Attitude Towards Risk
+Why: The "Research Papers" link in the ASE 2019 tracks box is not explicitly clear about what information it will provide. Given Abi's low confidence in performing unfamiliar computing tasks and her risk-averse nature, she might hesitate to click on a link without knowing exactly what information it will lead to. The page does not provide enough context or guidance about what will be found by clicking the link, which could deter Abi from taking this action.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the "Research Papers" link, Abi lands on a page that primarily lists people without providing direct information about the research papers themselves. This page does not immediately align with her goal of finding out what the conference is about. Given her comprehensive information processing style, Abi might not feel she is making progress toward her goal as the page lacks clear and relevant information about the research papers or conference content. Additionally, navigating through a long list of names without clear context could be overwhelming for someone with low computer self-efficacy.</t>
+Facets: Information Processing Style, Computer Self-Efficacy
+Why: After clicking on the "Research Papers" link, Abi lands on a page that appears to list numerous individuals, likely authors or contributors, without providing immediate context or detailed information about the research papers themselves. This page may overwhelm Abi due to the extensive list and lack of clear, organized information about the conference's research papers. Abi's comprehensive information processing style requires clear and structured information, and her low computer self-efficacy means she might struggle to navigate and extract the necessary details from this page.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The current page mainly lists individuals and does not provide clear guidance or context about the call for papers. Abi, needing comprehensive information and having low computer self-efficacy, might feel uncertain about where to click next. The page does not prominently feature a "Call for Papers" link or provide instructions, making it unclear for Abi to know what to do next. This lack of clear direction and context could hinder her confidence in taking the next step.</t>
+Facets: Computer Self-Efficacy, Attitude Towards Risk
+Why: The page Abi is currently on is cluttered with a long list of names and lacks clear navigation or instructions. The "Call for Papers" link is not immediately visible or highlighted, which might make it difficult for Abi to know what to do next. Given Abi's low confidence in performing unfamiliar computing tasks and her risk-averse nature, she might hesitate to click on a link without clear guidance or context, making it challenging for her to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Call for Papers" link, Abi lands on a page that provides comprehensive and detailed information about the call for papers, including topics, submission guidelines, and other relevant details. This aligns with her motivation to understand what the conference is about and her comprehensive information processing style. The clear and detailed presentation of information will help Abi feel confident that she is making progress toward her goal and has obtained the necessary information.</t>
+Facets: Information Processing Style
+Why: After clicking on the "Call for Papers" link, Abi lands on a page that provides detailed and structured information about the call for papers, including topics of interest, submission guidelines, and important dates. This aligns with Abi's comprehensive information processing style, as the page offers all the necessary details in a clear and organized manner. Abi will know she did the right thing and is making progress toward her goal because the page directly addresses her need to understand the requirements and process for submitting a paper to the conference.</t>
         </is>
       </c>
     </row>
